--- a/명찰.xlsx
+++ b/명찰.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Rock_01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\print_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$18</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -236,9 +236,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>6626</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4693920" cy="3268980"/>
+    <xdr:ext cx="4015408" cy="3518452"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="직사각형 1">
@@ -252,8 +252,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="129540" y="251460"/>
-          <a:ext cx="4693920" cy="3268980"/>
+          <a:off x="132522" y="258417"/>
+          <a:ext cx="4015408" cy="3518452"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -571,177 +571,172 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K17"/>
+  <dimension ref="B2:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.69921875" customWidth="1"/>
-    <col min="9" max="9" width="1.69921875" customWidth="1"/>
+    <col min="8" max="8" width="1.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6"/>
-      <c r="K5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6"/>
-      <c r="K6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G6" s="6"/>
+      <c r="J6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
-      <c r="K7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G7" s="6"/>
+      <c r="J7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
-      <c r="K8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G8" s="6"/>
+      <c r="J8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
-      <c r="K9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G9" s="6"/>
+      <c r="J9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
-      <c r="K10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G10" s="6"/>
+      <c r="J10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
-      <c r="K11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G11" s="6"/>
+      <c r="J11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="6"/>
-      <c r="K12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G12" s="6"/>
+      <c r="J12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="6"/>
-      <c r="K13" t="s">
+      <c r="G13" s="6"/>
+      <c r="J13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+      <c r="J14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9"/>
-      <c r="K14" t="s">
+    <row r="15" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="9"/>
+      <c r="J15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="K15" t="s">
+    <row r="16" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="K16" t="s">
+    <row r="17" spans="10:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="11:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="K17" t="s">
+    <row r="18" spans="10:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J18" t="s">
         <v>12</v>
       </c>
     </row>
@@ -751,7 +746,7 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="9" max="1048575" man="1"/>
+    <brk id="8" max="1048575" man="1"/>
   </colBreaks>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/명찰.xlsx
+++ b/명찰.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$224</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -305,6 +305,950 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>6626</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4015408" cy="3518452"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="직사각형 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3736379-4BE5-0C6F-E266-4C70AF57E57E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="132522" y="258417"/>
+          <a:ext cx="4015408" cy="3518452"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="9600" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="HY견명조" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="HY견명조" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+            </a:rPr>
+            <a:t>김경희</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="9600" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:latin typeface="HY견명조" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+            <a:ea typeface="HY견명조" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>6626</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4015408" cy="3518452"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="직사각형 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3736379-4BE5-0C6F-E266-4C70AF57E57E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="132522" y="258417"/>
+          <a:ext cx="4015408" cy="3518452"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="9600" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="HY견명조" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="HY견명조" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+            </a:rPr>
+            <a:t>조희진</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="9600" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:latin typeface="HY견명조" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+            <a:ea typeface="HY견명조" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>6626</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4015408" cy="3518452"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="직사각형 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3736379-4BE5-0C6F-E266-4C70AF57E57E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="132522" y="4287078"/>
+          <a:ext cx="4015408" cy="3518452"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="9600" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:latin typeface="HY견명조" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+            <a:ea typeface="HY견명조" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>6626</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4015408" cy="3518452"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="직사각형 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3736379-4BE5-0C6F-E266-4C70AF57E57E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="132522" y="16624852"/>
+          <a:ext cx="4015408" cy="3518452"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="9600" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="HY견명조" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="HY견명조" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+            </a:rPr>
+            <a:t>정병건</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="9600" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:latin typeface="HY견명조" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+            <a:ea typeface="HY견명조" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>6626</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4015408" cy="3518452"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="직사각형 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3736379-4BE5-0C6F-E266-4C70AF57E57E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="132522" y="20653513"/>
+          <a:ext cx="4015408" cy="3518452"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="9600" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="HY견명조" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="HY견명조" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+            </a:rPr>
+            <a:t>정성희</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="9600" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:latin typeface="HY견명조" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+            <a:ea typeface="HY견명조" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>6626</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4015408" cy="3518452"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="직사각형 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3736379-4BE5-0C6F-E266-4C70AF57E57E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="132522" y="16624852"/>
+          <a:ext cx="4015408" cy="3518452"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="9600" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="HY견명조" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="HY견명조" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+            </a:rPr>
+            <a:t>정광순</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="9600" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:latin typeface="HY견명조" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+            <a:ea typeface="HY견명조" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>6626</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4015408" cy="3518452"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="직사각형 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3736379-4BE5-0C6F-E266-4C70AF57E57E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="132522" y="20653513"/>
+          <a:ext cx="4015408" cy="3518452"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="9600" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="HY견명조" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="HY견명조" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+            </a:rPr>
+            <a:t>정기영</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="9600" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:latin typeface="HY견명조" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+            <a:ea typeface="HY견명조" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>6626</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4015408" cy="3518452"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="직사각형 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3736379-4BE5-0C6F-E266-4C70AF57E57E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="132522" y="16624852"/>
+          <a:ext cx="4015408" cy="3518452"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="9600" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="HY견명조" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="HY견명조" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+            </a:rPr>
+            <a:t>김정림</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="9600" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:latin typeface="HY견명조" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+            <a:ea typeface="HY견명조" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>6626</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4015408" cy="3518452"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="직사각형 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3736379-4BE5-0C6F-E266-4C70AF57E57E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="132522" y="20653513"/>
+          <a:ext cx="4015408" cy="3518452"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="9600" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="HY견명조" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="HY견명조" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+            </a:rPr>
+            <a:t>류상영</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="9600" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:latin typeface="HY견명조" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+            <a:ea typeface="HY견명조" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>6626</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4015408" cy="3518452"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="직사각형 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3736379-4BE5-0C6F-E266-4C70AF57E57E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="132522" y="16624852"/>
+          <a:ext cx="4015408" cy="3518452"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="9600" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="HY견명조" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="HY견명조" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+            </a:rPr>
+            <a:t>김성식</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="9600" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:latin typeface="HY견명조" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+            <a:ea typeface="HY견명조" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>6626</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4015408" cy="3518452"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="직사각형 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3736379-4BE5-0C6F-E266-4C70AF57E57E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="132522" y="20653513"/>
+          <a:ext cx="4015408" cy="3518452"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="9600" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="HY견명조" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="HY견명조" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+            </a:rPr>
+            <a:t>김수경</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="9600" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:latin typeface="HY견명조" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+            <a:ea typeface="HY견명조" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>6626</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4015408" cy="3518452"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="직사각형 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3736379-4BE5-0C6F-E266-4C70AF57E57E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="132522" y="48602348"/>
+          <a:ext cx="4015408" cy="3518452"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="9600" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="HY견명조" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="HY견명조" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+            </a:rPr>
+            <a:t>한정희</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="9600" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:latin typeface="HY견명조" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+            <a:ea typeface="HY견명조" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>6626</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4015408" cy="3518452"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="직사각형 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3736379-4BE5-0C6F-E266-4C70AF57E57E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="132522" y="52631009"/>
+          <a:ext cx="4015408" cy="3518452"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="9600" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="HY견명조" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+              <a:ea typeface="HY견명조" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+            </a:rPr>
+            <a:t>이명숙</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="9600" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:latin typeface="HY견명조" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+            <a:ea typeface="HY견명조" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -571,10 +1515,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J18"/>
+  <dimension ref="B2:K223"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <pane ySplit="15" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="K209" sqref="K209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -583,7 +1529,7 @@
     <col min="8" max="8" width="1.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -591,7 +1537,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -599,7 +1545,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -607,7 +1553,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -615,7 +1561,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -625,8 +1571,11 @@
       <c r="J6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -636,8 +1585,11 @@
       <c r="J7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -647,8 +1599,11 @@
       <c r="J8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -658,8 +1613,11 @@
       <c r="J9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -669,8 +1627,11 @@
       <c r="J10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -680,8 +1641,11 @@
       <c r="J11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -691,8 +1655,11 @@
       <c r="J12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -702,8 +1669,11 @@
       <c r="J13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -713,8 +1683,11 @@
       <c r="J14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -724,27 +1697,1502 @@
       <c r="J15" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="10:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="10:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="1"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="3"/>
       <c r="J18" t="s">
         <v>12</v>
       </c>
+      <c r="K18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="34" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="1"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="4"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="4"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="4"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="4"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="4"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="4"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="4"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="4"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="4"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="6"/>
+    </row>
+    <row r="44" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="4"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="6"/>
+    </row>
+    <row r="45" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="4"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="6"/>
+    </row>
+    <row r="46" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="4"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="6"/>
+    </row>
+    <row r="47" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="7"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="9"/>
+    </row>
+    <row r="50" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="1"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="3"/>
+    </row>
+    <row r="51" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B51" s="4"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="6"/>
+    </row>
+    <row r="52" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B52" s="4"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="6"/>
+    </row>
+    <row r="53" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B53" s="4"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="6"/>
+    </row>
+    <row r="54" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B54" s="4"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="6"/>
+    </row>
+    <row r="55" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B55" s="4"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="6"/>
+    </row>
+    <row r="56" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B56" s="4"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="6"/>
+    </row>
+    <row r="57" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B57" s="4"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="6"/>
+    </row>
+    <row r="58" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B58" s="4"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="6"/>
+    </row>
+    <row r="59" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B59" s="4"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="6"/>
+    </row>
+    <row r="60" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B60" s="4"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="6"/>
+    </row>
+    <row r="61" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B61" s="4"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="6"/>
+    </row>
+    <row r="62" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B62" s="4"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="6"/>
+    </row>
+    <row r="63" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B63" s="7"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="9"/>
+    </row>
+    <row r="66" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B66" s="1"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="3"/>
+    </row>
+    <row r="67" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B67" s="4"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="6"/>
+    </row>
+    <row r="68" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B68" s="4"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="6"/>
+    </row>
+    <row r="69" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B69" s="4"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="6"/>
+    </row>
+    <row r="70" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B70" s="4"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="6"/>
+    </row>
+    <row r="71" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B71" s="4"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="6"/>
+    </row>
+    <row r="72" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B72" s="4"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="6"/>
+    </row>
+    <row r="73" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B73" s="4"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="6"/>
+    </row>
+    <row r="74" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B74" s="4"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="6"/>
+    </row>
+    <row r="75" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B75" s="4"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="6"/>
+    </row>
+    <row r="76" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B76" s="4"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="6"/>
+    </row>
+    <row r="77" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B77" s="4"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="6"/>
+    </row>
+    <row r="78" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B78" s="4"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="6"/>
+    </row>
+    <row r="79" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B79" s="7"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="9"/>
+    </row>
+    <row r="82" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B82" s="1"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="3"/>
+    </row>
+    <row r="83" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B83" s="4"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="6"/>
+    </row>
+    <row r="84" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B84" s="4"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="6"/>
+    </row>
+    <row r="85" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B85" s="4"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="6"/>
+    </row>
+    <row r="86" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B86" s="4"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="6"/>
+    </row>
+    <row r="87" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B87" s="4"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="6"/>
+    </row>
+    <row r="88" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B88" s="4"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="6"/>
+    </row>
+    <row r="89" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B89" s="4"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="6"/>
+    </row>
+    <row r="90" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B90" s="4"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="6"/>
+    </row>
+    <row r="91" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B91" s="4"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="6"/>
+    </row>
+    <row r="92" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B92" s="4"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="6"/>
+    </row>
+    <row r="93" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B93" s="4"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="6"/>
+    </row>
+    <row r="94" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B94" s="4"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="6"/>
+    </row>
+    <row r="95" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B95" s="7"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="9"/>
+    </row>
+    <row r="98" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B98" s="1"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="3"/>
+    </row>
+    <row r="99" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B99" s="4"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="6"/>
+    </row>
+    <row r="100" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B100" s="4"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="6"/>
+    </row>
+    <row r="101" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B101" s="4"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="6"/>
+    </row>
+    <row r="102" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B102" s="4"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="6"/>
+    </row>
+    <row r="103" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B103" s="4"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="6"/>
+    </row>
+    <row r="104" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B104" s="4"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="6"/>
+    </row>
+    <row r="105" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B105" s="4"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="6"/>
+    </row>
+    <row r="106" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B106" s="4"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="6"/>
+    </row>
+    <row r="107" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B107" s="4"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="6"/>
+    </row>
+    <row r="108" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B108" s="4"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="6"/>
+    </row>
+    <row r="109" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B109" s="4"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="6"/>
+    </row>
+    <row r="110" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B110" s="4"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="6"/>
+    </row>
+    <row r="111" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B111" s="7"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="9"/>
+    </row>
+    <row r="114" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B114" s="1"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="3"/>
+    </row>
+    <row r="115" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B115" s="4"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="6"/>
+    </row>
+    <row r="116" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B116" s="4"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="6"/>
+    </row>
+    <row r="117" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B117" s="4"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="6"/>
+    </row>
+    <row r="118" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B118" s="4"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="6"/>
+    </row>
+    <row r="119" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B119" s="4"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="6"/>
+    </row>
+    <row r="120" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B120" s="4"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="6"/>
+    </row>
+    <row r="121" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B121" s="4"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="6"/>
+    </row>
+    <row r="122" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B122" s="4"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="6"/>
+    </row>
+    <row r="123" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B123" s="4"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="6"/>
+    </row>
+    <row r="124" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B124" s="4"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="6"/>
+    </row>
+    <row r="125" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B125" s="4"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="6"/>
+    </row>
+    <row r="126" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B126" s="4"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="6"/>
+    </row>
+    <row r="127" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B127" s="7"/>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="9"/>
+    </row>
+    <row r="130" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B130" s="1"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="3"/>
+    </row>
+    <row r="131" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B131" s="4"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="6"/>
+    </row>
+    <row r="132" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B132" s="4"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="6"/>
+    </row>
+    <row r="133" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B133" s="4"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="6"/>
+    </row>
+    <row r="134" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B134" s="4"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="6"/>
+    </row>
+    <row r="135" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B135" s="4"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="6"/>
+    </row>
+    <row r="136" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B136" s="4"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="6"/>
+    </row>
+    <row r="137" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B137" s="4"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="6"/>
+    </row>
+    <row r="138" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B138" s="4"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="6"/>
+    </row>
+    <row r="139" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B139" s="4"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="6"/>
+    </row>
+    <row r="140" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B140" s="4"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="6"/>
+    </row>
+    <row r="141" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B141" s="4"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="6"/>
+    </row>
+    <row r="142" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B142" s="4"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="6"/>
+    </row>
+    <row r="143" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B143" s="7"/>
+      <c r="C143" s="8"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="9"/>
+    </row>
+    <row r="146" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B146" s="1"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="3"/>
+    </row>
+    <row r="147" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B147" s="4"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="6"/>
+    </row>
+    <row r="148" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B148" s="4"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="6"/>
+    </row>
+    <row r="149" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B149" s="4"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
+      <c r="G149" s="6"/>
+    </row>
+    <row r="150" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B150" s="4"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="6"/>
+    </row>
+    <row r="151" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B151" s="4"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
+      <c r="G151" s="6"/>
+    </row>
+    <row r="152" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B152" s="4"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="6"/>
+    </row>
+    <row r="153" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B153" s="4"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5"/>
+      <c r="G153" s="6"/>
+    </row>
+    <row r="154" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B154" s="4"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
+      <c r="G154" s="6"/>
+    </row>
+    <row r="155" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B155" s="4"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5"/>
+      <c r="G155" s="6"/>
+    </row>
+    <row r="156" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B156" s="4"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="6"/>
+    </row>
+    <row r="157" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B157" s="4"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5"/>
+      <c r="G157" s="6"/>
+    </row>
+    <row r="158" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B158" s="4"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
+      <c r="F158" s="5"/>
+      <c r="G158" s="6"/>
+    </row>
+    <row r="159" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B159" s="7"/>
+      <c r="C159" s="8"/>
+      <c r="D159" s="8"/>
+      <c r="E159" s="8"/>
+      <c r="F159" s="8"/>
+      <c r="G159" s="9"/>
+    </row>
+    <row r="162" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B162" s="1"/>
+      <c r="C162" s="2"/>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
+      <c r="F162" s="2"/>
+      <c r="G162" s="3"/>
+    </row>
+    <row r="163" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B163" s="4"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5"/>
+      <c r="F163" s="5"/>
+      <c r="G163" s="6"/>
+    </row>
+    <row r="164" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B164" s="4"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5"/>
+      <c r="G164" s="6"/>
+    </row>
+    <row r="165" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B165" s="4"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5"/>
+      <c r="F165" s="5"/>
+      <c r="G165" s="6"/>
+    </row>
+    <row r="166" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B166" s="4"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="6"/>
+    </row>
+    <row r="167" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B167" s="4"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5"/>
+      <c r="E167" s="5"/>
+      <c r="F167" s="5"/>
+      <c r="G167" s="6"/>
+    </row>
+    <row r="168" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B168" s="4"/>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="5"/>
+      <c r="F168" s="5"/>
+      <c r="G168" s="6"/>
+    </row>
+    <row r="169" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B169" s="4"/>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5"/>
+      <c r="E169" s="5"/>
+      <c r="F169" s="5"/>
+      <c r="G169" s="6"/>
+    </row>
+    <row r="170" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B170" s="4"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5"/>
+      <c r="G170" s="6"/>
+    </row>
+    <row r="171" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B171" s="4"/>
+      <c r="C171" s="5"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="5"/>
+      <c r="F171" s="5"/>
+      <c r="G171" s="6"/>
+    </row>
+    <row r="172" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B172" s="4"/>
+      <c r="C172" s="5"/>
+      <c r="D172" s="5"/>
+      <c r="E172" s="5"/>
+      <c r="F172" s="5"/>
+      <c r="G172" s="6"/>
+    </row>
+    <row r="173" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B173" s="4"/>
+      <c r="C173" s="5"/>
+      <c r="D173" s="5"/>
+      <c r="E173" s="5"/>
+      <c r="F173" s="5"/>
+      <c r="G173" s="6"/>
+    </row>
+    <row r="174" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B174" s="4"/>
+      <c r="C174" s="5"/>
+      <c r="D174" s="5"/>
+      <c r="E174" s="5"/>
+      <c r="F174" s="5"/>
+      <c r="G174" s="6"/>
+    </row>
+    <row r="175" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B175" s="7"/>
+      <c r="C175" s="8"/>
+      <c r="D175" s="8"/>
+      <c r="E175" s="8"/>
+      <c r="F175" s="8"/>
+      <c r="G175" s="9"/>
+    </row>
+    <row r="178" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B178" s="1"/>
+      <c r="C178" s="2"/>
+      <c r="D178" s="2"/>
+      <c r="E178" s="2"/>
+      <c r="F178" s="2"/>
+      <c r="G178" s="3"/>
+    </row>
+    <row r="179" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B179" s="4"/>
+      <c r="C179" s="5"/>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5"/>
+      <c r="F179" s="5"/>
+      <c r="G179" s="6"/>
+    </row>
+    <row r="180" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B180" s="4"/>
+      <c r="C180" s="5"/>
+      <c r="D180" s="5"/>
+      <c r="E180" s="5"/>
+      <c r="F180" s="5"/>
+      <c r="G180" s="6"/>
+    </row>
+    <row r="181" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B181" s="4"/>
+      <c r="C181" s="5"/>
+      <c r="D181" s="5"/>
+      <c r="E181" s="5"/>
+      <c r="F181" s="5"/>
+      <c r="G181" s="6"/>
+    </row>
+    <row r="182" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B182" s="4"/>
+      <c r="C182" s="5"/>
+      <c r="D182" s="5"/>
+      <c r="E182" s="5"/>
+      <c r="F182" s="5"/>
+      <c r="G182" s="6"/>
+    </row>
+    <row r="183" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B183" s="4"/>
+      <c r="C183" s="5"/>
+      <c r="D183" s="5"/>
+      <c r="E183" s="5"/>
+      <c r="F183" s="5"/>
+      <c r="G183" s="6"/>
+    </row>
+    <row r="184" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B184" s="4"/>
+      <c r="C184" s="5"/>
+      <c r="D184" s="5"/>
+      <c r="E184" s="5"/>
+      <c r="F184" s="5"/>
+      <c r="G184" s="6"/>
+    </row>
+    <row r="185" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B185" s="4"/>
+      <c r="C185" s="5"/>
+      <c r="D185" s="5"/>
+      <c r="E185" s="5"/>
+      <c r="F185" s="5"/>
+      <c r="G185" s="6"/>
+    </row>
+    <row r="186" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B186" s="4"/>
+      <c r="C186" s="5"/>
+      <c r="D186" s="5"/>
+      <c r="E186" s="5"/>
+      <c r="F186" s="5"/>
+      <c r="G186" s="6"/>
+    </row>
+    <row r="187" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B187" s="4"/>
+      <c r="C187" s="5"/>
+      <c r="D187" s="5"/>
+      <c r="E187" s="5"/>
+      <c r="F187" s="5"/>
+      <c r="G187" s="6"/>
+    </row>
+    <row r="188" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B188" s="4"/>
+      <c r="C188" s="5"/>
+      <c r="D188" s="5"/>
+      <c r="E188" s="5"/>
+      <c r="F188" s="5"/>
+      <c r="G188" s="6"/>
+    </row>
+    <row r="189" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B189" s="4"/>
+      <c r="C189" s="5"/>
+      <c r="D189" s="5"/>
+      <c r="E189" s="5"/>
+      <c r="F189" s="5"/>
+      <c r="G189" s="6"/>
+    </row>
+    <row r="190" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B190" s="4"/>
+      <c r="C190" s="5"/>
+      <c r="D190" s="5"/>
+      <c r="E190" s="5"/>
+      <c r="F190" s="5"/>
+      <c r="G190" s="6"/>
+    </row>
+    <row r="191" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B191" s="7"/>
+      <c r="C191" s="8"/>
+      <c r="D191" s="8"/>
+      <c r="E191" s="8"/>
+      <c r="F191" s="8"/>
+      <c r="G191" s="9"/>
+    </row>
+    <row r="194" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B194" s="1"/>
+      <c r="C194" s="2"/>
+      <c r="D194" s="2"/>
+      <c r="E194" s="2"/>
+      <c r="F194" s="2"/>
+      <c r="G194" s="3"/>
+    </row>
+    <row r="195" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B195" s="4"/>
+      <c r="C195" s="5"/>
+      <c r="D195" s="5"/>
+      <c r="E195" s="5"/>
+      <c r="F195" s="5"/>
+      <c r="G195" s="6"/>
+    </row>
+    <row r="196" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B196" s="4"/>
+      <c r="C196" s="5"/>
+      <c r="D196" s="5"/>
+      <c r="E196" s="5"/>
+      <c r="F196" s="5"/>
+      <c r="G196" s="6"/>
+    </row>
+    <row r="197" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B197" s="4"/>
+      <c r="C197" s="5"/>
+      <c r="D197" s="5"/>
+      <c r="E197" s="5"/>
+      <c r="F197" s="5"/>
+      <c r="G197" s="6"/>
+    </row>
+    <row r="198" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B198" s="4"/>
+      <c r="C198" s="5"/>
+      <c r="D198" s="5"/>
+      <c r="E198" s="5"/>
+      <c r="F198" s="5"/>
+      <c r="G198" s="6"/>
+    </row>
+    <row r="199" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B199" s="4"/>
+      <c r="C199" s="5"/>
+      <c r="D199" s="5"/>
+      <c r="E199" s="5"/>
+      <c r="F199" s="5"/>
+      <c r="G199" s="6"/>
+    </row>
+    <row r="200" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B200" s="4"/>
+      <c r="C200" s="5"/>
+      <c r="D200" s="5"/>
+      <c r="E200" s="5"/>
+      <c r="F200" s="5"/>
+      <c r="G200" s="6"/>
+    </row>
+    <row r="201" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B201" s="4"/>
+      <c r="C201" s="5"/>
+      <c r="D201" s="5"/>
+      <c r="E201" s="5"/>
+      <c r="F201" s="5"/>
+      <c r="G201" s="6"/>
+    </row>
+    <row r="202" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B202" s="4"/>
+      <c r="C202" s="5"/>
+      <c r="D202" s="5"/>
+      <c r="E202" s="5"/>
+      <c r="F202" s="5"/>
+      <c r="G202" s="6"/>
+    </row>
+    <row r="203" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B203" s="4"/>
+      <c r="C203" s="5"/>
+      <c r="D203" s="5"/>
+      <c r="E203" s="5"/>
+      <c r="F203" s="5"/>
+      <c r="G203" s="6"/>
+    </row>
+    <row r="204" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B204" s="4"/>
+      <c r="C204" s="5"/>
+      <c r="D204" s="5"/>
+      <c r="E204" s="5"/>
+      <c r="F204" s="5"/>
+      <c r="G204" s="6"/>
+    </row>
+    <row r="205" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B205" s="4"/>
+      <c r="C205" s="5"/>
+      <c r="D205" s="5"/>
+      <c r="E205" s="5"/>
+      <c r="F205" s="5"/>
+      <c r="G205" s="6"/>
+    </row>
+    <row r="206" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B206" s="4"/>
+      <c r="C206" s="5"/>
+      <c r="D206" s="5"/>
+      <c r="E206" s="5"/>
+      <c r="F206" s="5"/>
+      <c r="G206" s="6"/>
+    </row>
+    <row r="207" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B207" s="7"/>
+      <c r="C207" s="8"/>
+      <c r="D207" s="8"/>
+      <c r="E207" s="8"/>
+      <c r="F207" s="8"/>
+      <c r="G207" s="9"/>
+    </row>
+    <row r="210" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B210" s="1"/>
+      <c r="C210" s="2"/>
+      <c r="D210" s="2"/>
+      <c r="E210" s="2"/>
+      <c r="F210" s="2"/>
+      <c r="G210" s="3"/>
+    </row>
+    <row r="211" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B211" s="4"/>
+      <c r="C211" s="5"/>
+      <c r="D211" s="5"/>
+      <c r="E211" s="5"/>
+      <c r="F211" s="5"/>
+      <c r="G211" s="6"/>
+    </row>
+    <row r="212" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B212" s="4"/>
+      <c r="C212" s="5"/>
+      <c r="D212" s="5"/>
+      <c r="E212" s="5"/>
+      <c r="F212" s="5"/>
+      <c r="G212" s="6"/>
+    </row>
+    <row r="213" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B213" s="4"/>
+      <c r="C213" s="5"/>
+      <c r="D213" s="5"/>
+      <c r="E213" s="5"/>
+      <c r="F213" s="5"/>
+      <c r="G213" s="6"/>
+    </row>
+    <row r="214" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B214" s="4"/>
+      <c r="C214" s="5"/>
+      <c r="D214" s="5"/>
+      <c r="E214" s="5"/>
+      <c r="F214" s="5"/>
+      <c r="G214" s="6"/>
+    </row>
+    <row r="215" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B215" s="4"/>
+      <c r="C215" s="5"/>
+      <c r="D215" s="5"/>
+      <c r="E215" s="5"/>
+      <c r="F215" s="5"/>
+      <c r="G215" s="6"/>
+    </row>
+    <row r="216" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B216" s="4"/>
+      <c r="C216" s="5"/>
+      <c r="D216" s="5"/>
+      <c r="E216" s="5"/>
+      <c r="F216" s="5"/>
+      <c r="G216" s="6"/>
+    </row>
+    <row r="217" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B217" s="4"/>
+      <c r="C217" s="5"/>
+      <c r="D217" s="5"/>
+      <c r="E217" s="5"/>
+      <c r="F217" s="5"/>
+      <c r="G217" s="6"/>
+    </row>
+    <row r="218" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B218" s="4"/>
+      <c r="C218" s="5"/>
+      <c r="D218" s="5"/>
+      <c r="E218" s="5"/>
+      <c r="F218" s="5"/>
+      <c r="G218" s="6"/>
+    </row>
+    <row r="219" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B219" s="4"/>
+      <c r="C219" s="5"/>
+      <c r="D219" s="5"/>
+      <c r="E219" s="5"/>
+      <c r="F219" s="5"/>
+      <c r="G219" s="6"/>
+    </row>
+    <row r="220" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B220" s="4"/>
+      <c r="C220" s="5"/>
+      <c r="D220" s="5"/>
+      <c r="E220" s="5"/>
+      <c r="F220" s="5"/>
+      <c r="G220" s="6"/>
+    </row>
+    <row r="221" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B221" s="4"/>
+      <c r="C221" s="5"/>
+      <c r="D221" s="5"/>
+      <c r="E221" s="5"/>
+      <c r="F221" s="5"/>
+      <c r="G221" s="6"/>
+    </row>
+    <row r="222" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B222" s="4"/>
+      <c r="C222" s="5"/>
+      <c r="D222" s="5"/>
+      <c r="E222" s="5"/>
+      <c r="F222" s="5"/>
+      <c r="G222" s="6"/>
+    </row>
+    <row r="223" spans="2:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B223" s="7"/>
+      <c r="C223" s="8"/>
+      <c r="D223" s="8"/>
+      <c r="E223" s="8"/>
+      <c r="F223" s="8"/>
+      <c r="G223" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <rowBreaks count="7" manualBreakCount="7">
+    <brk id="32" max="7" man="1"/>
+    <brk id="64" max="7" man="1"/>
+    <brk id="96" max="7" man="1"/>
+    <brk id="128" max="7" man="1"/>
+    <brk id="144" max="7" man="1"/>
+    <brk id="160" max="7" man="1"/>
+    <brk id="192" max="7" man="1"/>
+  </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="8" max="1048575" man="1"/>
   </colBreaks>
